--- a/medicine/Mort/Obsèques_nationales/Obsèques_nationales.xlsx
+++ b/medicine/Mort/Obsèques_nationales/Obsèques_nationales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Obs%C3%A8ques_nationales</t>
+          <t>Obsèques_nationales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les obsèques ou funérailles nationales sont les hommages rendus de manière officielle par un État lors du décès d'une personnalité ayant eu un rôle exceptionnel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obs%C3%A8ques_nationales</t>
+          <t>Obsèques_nationales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Algérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Houari Boumédiène
 Mohamed Boudiaf
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Obs%C3%A8ques_nationales</t>
+          <t>Obsèques_nationales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Québec</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Obs%C3%A8ques_nationales</t>
+          <t>Obsèques_nationales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,36 +585,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Obs%C3%A8ques_nationales</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Obs%C3%A8ques_nationales</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 George Kingsley Acquah (en)
@@ -628,13 +616,47 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Obsèques_nationales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Obs%C3%A8ques_nationales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Haïti</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorimer Denis se vit organiser des obsèques nationales en 1957.
+Des funérailles nationales furent organisées le 23 juillet 2021 à Cap-Haïtien en l'honneur de Jovenel Moïse, président de la république d'Haïti, mort assassiné le 7 juillet 2021 à Pétion-Ville.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Obs%C3%A8ques_nationales</t>
+          <t>Obsèques_nationales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,44 +671,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haïti</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorimer Denis se vit organiser des obsèques nationales en 1957[1].
-Des funérailles nationales furent organisées le 23 juillet 2021 à Cap-Haïtien en l'honneur de Jovenel Moïse, président de la république d'Haïti, mort assassiné le 7 juillet 2021 à Pétion-Ville[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Obs%C3%A8ques_nationales</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Obs%C3%A8ques_nationales</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les obsèques nationales au Royaume-Uni sont normalement réservées à la famille royale britannique, mais il existe certaines exceptions, comme en 1965 lors du décès de Winston Churchill, qui avait dirigé le pays pendant la Seconde Guerre mondiale, ou Horatio Nelson. Le terme « funérailles d'État » est réservé aux monarques ; pour les autres grands personnages, comme Margaret Thatcher en 2013, le terme « funérailles cérémonielles » est utilisé[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les obsèques nationales au Royaume-Uni sont normalement réservées à la famille royale britannique, mais il existe certaines exceptions, comme en 1965 lors du décès de Winston Churchill, qui avait dirigé le pays pendant la Seconde Guerre mondiale, ou Horatio Nelson. Le terme « funérailles d'État » est réservé aux monarques ; pour les autres grands personnages, comme Margaret Thatcher en 2013, le terme « funérailles cérémonielles » est utilisé.
 </t>
         </is>
       </c>
